--- a/biology/Médecine/Nodule_(médecine)/Nodule_(médecine).xlsx
+++ b/biology/Médecine/Nodule_(médecine)/Nodule_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nodule_(m%C3%A9decine)</t>
+          <t>Nodule_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine, un nodule[1]  est une formation anormale, arrondie, palpable dans ou sous la peau, qui peut être une tumeur bénigne ou maligne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, un nodule  est une formation anormale, arrondie, palpable dans ou sous la peau, qui peut être une tumeur bénigne ou maligne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nodule_(m%C3%A9decine)</t>
+          <t>Nodule_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains nodules peuvent être des tumeurs cancéreuses, en particulier dans le cancer du sein[2].
-En règle générale, les nodules sont des anomalies bénignes qu'il convient tout de même de surveiller[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains nodules peuvent être des tumeurs cancéreuses, en particulier dans le cancer du sein.
+En règle générale, les nodules sont des anomalies bénignes qu'il convient tout de même de surveiller.
 En dessous de 10 mm, on peut parler de micronodule.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nodule_(m%C3%A9decine)</t>
+          <t>Nodule_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Organes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En dehors des nodules du sein, cités plus haut, il existe des nodules des poumons, du foie, des reins ou de la thyroïde[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors des nodules du sein, cités plus haut, il existe des nodules des poumons, du foie, des reins ou de la thyroïde.
 </t>
         </is>
       </c>
